--- a/src/test/java/TestData/userInputSS.xlsx
+++ b/src/test/java/TestData/userInputSS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salmanmalik/Desktop/GURU_TEST/gd_automation/src/test/java/TestData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salmanmalik/Desktop/Test/src/test/java/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942D73B4-AF24-6341-83F7-6BFF89950B3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B46B36F-4559-534E-A7D7-2815BA23FFB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6080" yWindow="3060" windowWidth="14300" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>mngr408989</t>
-  </si>
-  <si>
     <t>EgUdAzY</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>malik0691+31@hotmail.com</t>
+  </si>
+  <si>
+    <t>malik0691@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -448,8 +448,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -457,20 +457,20 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>44652</v>
@@ -478,66 +478,67 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" xr:uid="{17EC5482-B4D2-984B-B5E6-9B5089A5405D}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{7EC78B63-926F-2E4D-BA9E-F98B0A94E28D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
